--- a/data/income_statement/2digits/size/71_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/71_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>71-Architectural and engineering activities; technical testing and analysis</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>71-Architectural and engineering activities; technical testing and analysis</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1112 +841,1257 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1853532.66861</v>
+        <v>2005142.37307</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2134727.069</v>
+        <v>2350765.45087</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2656960.04544</v>
+        <v>2894349.68695</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2807928.107189999</v>
+        <v>3235484.11951</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3038962.81312</v>
+        <v>3397799.92367</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3127433.18884</v>
+        <v>3600080.36878</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3532227.15283</v>
+        <v>4154859.78458</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3811636.133</v>
+        <v>4495621.64953</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4012442.26944</v>
+        <v>4866860.07925</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8230661.40416</v>
+        <v>9160774.130630001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8482370.221760001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9952946.86234</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10858997.182</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1716684.16503</v>
+        <v>1854904.53731</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1966420.36303</v>
+        <v>2159098.91683</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2476342.92015</v>
+        <v>2691712.5608</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2609373.09063</v>
+        <v>2859327.33577</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2771260.01614</v>
+        <v>3102840.79984</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2898524.29203</v>
+        <v>3332591.17515</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3256447.34066</v>
+        <v>3824718.24999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3524974.13763</v>
+        <v>4154016.41389</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3726477.58535</v>
+        <v>4524500.02525</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7574848.0891</v>
+        <v>8429406.274120001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7739485.93393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9073245.382619999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9729664.367000001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>82154.60225</v>
+        <v>88827.41053000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>98557.03271</v>
+        <v>110999.85836</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>106918.53391</v>
+        <v>118455.9919</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>127805.17687</v>
+        <v>295951.5592200001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>190133.95885</v>
+        <v>205051.29822</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>146401.44468</v>
+        <v>166025.62834</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>167980.13264</v>
+        <v>199483.04251</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>187970.23725</v>
+        <v>212943.20076</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>174892.58374</v>
+        <v>202234.51772</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>474855.85096</v>
+        <v>518727.40166</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>534700.81595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>616759.0421400002</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>847553.075</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>54693.90133</v>
+        <v>61410.42522999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>69749.67326</v>
+        <v>80666.67568</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>73698.59138</v>
+        <v>84181.13425</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>70749.83968999999</v>
+        <v>80205.22451999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>77568.83812999999</v>
+        <v>89907.82561</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>82507.45212999999</v>
+        <v>101463.56529</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>107799.67953</v>
+        <v>130658.49208</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>98691.75811999998</v>
+        <v>128662.03488</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>111072.10035</v>
+        <v>140125.53628</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>180957.4641</v>
+        <v>212640.45485</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>208183.47188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>262942.43758</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>281779.74</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>9031.41387</v>
+        <v>10098.37601</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8612.11659</v>
+        <v>11456.90254</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>12210.40656</v>
+        <v>13548.23045</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>9842.267899999999</v>
+        <v>11397.04684</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>12159.03643</v>
+        <v>13960.88143</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10146.68605</v>
+        <v>13063.60238</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12955.41705</v>
+        <v>19986.48505</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>14458.43826</v>
+        <v>19739.85357</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>23628.02337</v>
+        <v>37104.20031</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>37873.1382</v>
+        <v>47106.64848</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>56242.80119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>66698.33211</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>145988.519</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7198.901869999999</v>
+        <v>8221.343779999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5759.17066</v>
+        <v>8545.51684</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>8991.294739999998</v>
+        <v>9716.07101</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7551.60634</v>
+        <v>8591.961929999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10388.37854</v>
+        <v>12120.27777</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7841.67278</v>
+        <v>9731.267629999998</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9432.729289999999</v>
+        <v>15272.60728</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>11508.10506</v>
+        <v>15758.8953</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>21273.74417</v>
+        <v>33895.76613</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>32110.40685</v>
+        <v>40626.99612999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>51095.90347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>59524.13613000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>133639.411</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1347.96304</v>
+        <v>1383.47633</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2152.86175</v>
+        <v>2173.21146</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2370.33106</v>
+        <v>2646.56767</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1548.71679</v>
+        <v>1949.41896</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1194.31873</v>
+        <v>1202.61475</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1134.6372</v>
+        <v>1682.984</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1884.67998</v>
+        <v>2498.781860000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1202.97119</v>
+        <v>1614.56925</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1137.96864</v>
+        <v>1259.33988</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2456.80194</v>
+        <v>2545.91194</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2100.01947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3694.5991</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>7486.022</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>484.54896</v>
+        <v>493.5559</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>700.0841799999999</v>
+        <v>738.1742399999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>848.78076</v>
+        <v>1185.59177</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>741.9447699999999</v>
+        <v>855.66595</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>576.3391599999999</v>
+        <v>637.9889099999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1170.37607</v>
+        <v>1649.35075</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1638.00778</v>
+        <v>2215.09591</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1747.36201</v>
+        <v>2366.38902</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1216.31056</v>
+        <v>1949.0943</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3305.92941</v>
+        <v>3933.74041</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3046.87825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3479.59688</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4863.086</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1844501.25474</v>
+        <v>1995043.99706</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2126114.95241</v>
+        <v>2339308.54833</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2644749.63888</v>
+        <v>2880801.4565</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2798085.83929</v>
+        <v>3224087.07267</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3026803.77669</v>
+        <v>3383839.04224</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3117286.50279</v>
+        <v>3587016.7664</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3519271.73578</v>
+        <v>4134873.29953</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3797177.69474</v>
+        <v>4475881.79596</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3988814.24607</v>
+        <v>4829755.878939999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8192788.26596</v>
+        <v>9113667.48215</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8426127.420569999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9886248.530229999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10713008.663</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1224460.25583</v>
+        <v>1307404.82015</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1386728.27813</v>
+        <v>1508347.46093</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1716873.41263</v>
+        <v>1856265.61593</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1857974.8929</v>
+        <v>2170732.21834</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2020465.8487</v>
+        <v>2232257.27888</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2058823.71812</v>
+        <v>2335253.37148</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2374600.77038</v>
+        <v>2758622.02832</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2612651.12961</v>
+        <v>3032886.77186</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2717026.30017</v>
+        <v>3261448.9926</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5957621.30832</v>
+        <v>6583432.16617</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6142486.025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7153761.675869999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7713308.985</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>145541.84642</v>
+        <v>160312.65197</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>150583.8618</v>
+        <v>167696.03944</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>174143.92922</v>
+        <v>195439.04543</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>200943.36785</v>
+        <v>221427.03867</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>214664.49052</v>
+        <v>253567.85533</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>234801.87518</v>
+        <v>281385.12645</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>244863.74263</v>
+        <v>309449.51328</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>287107.8732</v>
+        <v>366439.11777</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>295829.20511</v>
+        <v>400051.42155</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>850297.80123</v>
+        <v>967772.85409</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>978807.16519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1127347.00942</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>991264.017</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>429246.83335</v>
+        <v>449278.14936</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>486777.18479</v>
+        <v>524089.26654</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>587726.6405399999</v>
+        <v>624217.76752</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>637162.72609</v>
+        <v>677386.7584399999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>600176.9951899999</v>
+        <v>652509.4662</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>585215.5114300001</v>
+        <v>646898.1437900001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>764568.08952</v>
+        <v>844687.2070800001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>779488.71853</v>
+        <v>866248.09424</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>827571.88975</v>
+        <v>936688.86639</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1846781.06726</v>
+        <v>2041898.06047</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1810632.99852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2179964.52852</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2743486.694</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>645152.0894500001</v>
+        <v>691937.42967</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>742798.61589</v>
+        <v>809468.70359</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>950608.35486</v>
+        <v>1032145.5667</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1011305.57291</v>
+        <v>1261734.75095</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1197407.14701</v>
+        <v>1316295.58324</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1227597.30278</v>
+        <v>1392895.44624</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1346089.69677</v>
+        <v>1582057.61767</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1514755.53938</v>
+        <v>1763655.08293</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1570492.75549</v>
+        <v>1894433.13957</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3202198.967</v>
+        <v>3508035.4606</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3293798.07712</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3774456.8347</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3885377.176</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4519.48661</v>
+        <v>5876.589150000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6568.61565</v>
+        <v>7093.451359999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>4394.48801</v>
+        <v>4463.23628</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>8563.226050000001</v>
+        <v>10183.67028</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>8217.215980000001</v>
+        <v>9884.374109999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>11209.02873</v>
+        <v>14074.655</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>19079.24146</v>
+        <v>22427.69029</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>31298.9985</v>
+        <v>36544.47692</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>23132.44982</v>
+        <v>30275.56509</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>58343.47283</v>
+        <v>65725.79101</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>59247.78416999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>71993.30323</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>93181.098</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>620040.9989100001</v>
+        <v>687639.1769099999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>739386.6742799999</v>
+        <v>830961.0874</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>927876.2262499999</v>
+        <v>1024535.84057</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>940110.9463899999</v>
+        <v>1053354.85433</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1006337.92799</v>
+        <v>1151581.76336</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1058462.78467</v>
+        <v>1251763.39492</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1144670.9654</v>
+        <v>1376251.27121</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1184526.56513</v>
+        <v>1442995.0241</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1271787.9459</v>
+        <v>1568306.88634</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2235166.95764</v>
+        <v>2530235.31598</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2283641.39557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2732486.85436</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2999699.678</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>488632.64115</v>
+        <v>561523.79519</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>541476.6808999999</v>
+        <v>617707.1051899999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>691601.23118</v>
+        <v>772603.02154</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>737009.74401</v>
+        <v>828347.64257</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>832651.9639</v>
+        <v>1005102.92896</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>922517.6819200001</v>
+        <v>1121496.15289</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1024136.95656</v>
+        <v>1289908.23681</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1104740.4403</v>
+        <v>1430856.18561</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1154377.56276</v>
+        <v>1545753.82985</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1924011.42351</v>
+        <v>2212367.32702</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2082643.31277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3008674.35934</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2518715.231</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>9497.481330000001</v>
+        <v>10374.81936</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>5336.902849999999</v>
+        <v>6096.9834</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>8261.41142</v>
+        <v>9404.48949</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>11942.50182</v>
+        <v>13273.69283</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>12373.34131</v>
+        <v>15191.60483</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>14404.71885</v>
+        <v>17308.39343</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>15391.26074</v>
+        <v>20394.80238</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>13545.01921</v>
+        <v>22378.73682</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>14394.93106</v>
+        <v>19982.03724</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>33085.28524</v>
+        <v>40485.76646</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>37788.38074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>50222.86132</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>43887.728</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>34908.81479</v>
+        <v>39041.73026</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>41403.83878</v>
+        <v>46172.16554</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>51793.80225</v>
+        <v>55696.56620999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>51645.56935</v>
+        <v>57184.1323</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>53632.52937</v>
+        <v>60000.25307</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>60914.05919000001</v>
+        <v>70321.93259</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>73595.84143</v>
+        <v>87082.09056999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>77868.84514999999</v>
+        <v>92440.04097</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>74079.58477</v>
+        <v>96388.94618</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>151461.16218</v>
+        <v>168372.32912</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>155165.01023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>188621.01518</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>201950.89</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>444226.34503</v>
+        <v>512107.24557</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>494735.93927</v>
+        <v>565437.95625</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>631546.01751</v>
+        <v>707501.9658400001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>673421.67284</v>
+        <v>757889.8174399999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>766646.09322</v>
+        <v>929911.07106</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>847198.90388</v>
+        <v>1033865.82687</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>935149.85439</v>
+        <v>1182431.34386</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1013326.57594</v>
+        <v>1316037.40782</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1065903.04693</v>
+        <v>1429382.84643</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1739464.97609</v>
+        <v>2003509.23144</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1889689.9218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2769830.48284</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2272876.613</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>131408.35776</v>
+        <v>126115.38172</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>197909.99338</v>
+        <v>213253.98221</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>236274.99507</v>
+        <v>251932.81903</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>203101.20238</v>
+        <v>225007.21176</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>173685.96409</v>
+        <v>146478.8344</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>135945.10275</v>
+        <v>130267.24203</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>120534.00884</v>
+        <v>86343.03439999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>79786.12483000002</v>
+        <v>12138.83849</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>117410.38314</v>
+        <v>22553.05649</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>311155.53413</v>
+        <v>317867.98896</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>200998.0828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-276187.50498</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>480984.447</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>17997.94298</v>
+        <v>243259.76477</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>16912.10514</v>
+        <v>150842.09302</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>24611.0395</v>
+        <v>157548.13423</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>24356.92369</v>
+        <v>133905.66278</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>33426.81533</v>
+        <v>1887676.61031</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>42807.39744</v>
+        <v>1156766.87963</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>52875.30745</v>
+        <v>1716591.41873</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>51232.59164</v>
+        <v>1311287.82715</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>50274.82379</v>
+        <v>1727870.39919</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>262763.38648</v>
+        <v>10722482.36577</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>183199.32681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>863285.3851099999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1125043.672</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>506.78127</v>
+        <v>23093.91881</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>434.6285</v>
+        <v>51917.98786</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>567.08248</v>
+        <v>59307.33509</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1530.52273</v>
+        <v>71676.79097</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>970.0879100000001</v>
+        <v>117307.89734</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3120.0678</v>
+        <v>214444.114</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2105.25643</v>
+        <v>121247.66353</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1316.51546</v>
+        <v>166514.72069</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1885.35064</v>
+        <v>231321.04968</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>5985.997600000001</v>
+        <v>224780.08544</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>6241.595429999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>213452.82483</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>105007.211</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>546.4910699999999</v>
+        <v>1578.54055</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>274.83559</v>
+        <v>5220.13276</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>284.5632</v>
+        <v>2924.12191</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>607.17063</v>
+        <v>2101.77923</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1010.41798</v>
+        <v>1560438.08587</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>938.31205</v>
+        <v>635650.22703</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1154.35716</v>
+        <v>1137571.85842</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>694.6394399999999</v>
+        <v>617372.61748</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>755.5427900000001</v>
+        <v>23185.34503</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>2614.49857</v>
+        <v>57927.44436</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2455.09583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>84296.99185999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>24976.581</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4221.92966</v>
+        <v>16675.25966</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3776.10784</v>
+        <v>14496.41425</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3946.54411</v>
+        <v>10929.80857</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5131.64176</v>
+        <v>17506.13565</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4667.427819999999</v>
+        <v>32914.47918</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6697.83641</v>
+        <v>28373.54796</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7187.683919999999</v>
+        <v>32400.41364</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6800.36355</v>
+        <v>36254.82402</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8317.21197</v>
+        <v>82627.50320000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30531.93586</v>
+        <v>165091.18738</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>39993.80375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>148664.92613</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>107153.412</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1592.92308</v>
+        <v>1596.40443</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1488.64061</v>
+        <v>1557.43986</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>736.94434</v>
+        <v>1712.87043</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1274.01802</v>
+        <v>1930.04721</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>372.27127</v>
+        <v>1949.84051</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>669.4718300000001</v>
+        <v>2872.50919</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>335.90815</v>
+        <v>2509.34041</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1584.33194</v>
+        <v>9093.24626</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1334.73309</v>
+        <v>2554.15041</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1795.6312</v>
+        <v>1825.20208</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2114.78365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2871.71301</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3524.142</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>552.7525700000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>472.82372</v>
+        <v>474.80797</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>241.2773</v>
+        <v>257.93785</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>937.8407199999999</v>
+        <v>939.15451</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1911.36099</v>
+        <v>1972.19959</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>789.39572</v>
+        <v>962.41603</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1355.43552</v>
+        <v>2054.5577</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>744.57537</v>
+        <v>1530.2979</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>534.29972</v>
+        <v>6191.33013</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3493.26404</v>
+        <v>5129.38127</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8365.656569999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8927.699279999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4203.292</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>839.54693</v>
+        <v>21935.65683</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>425.5391</v>
+        <v>583.7379599999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>554.3144700000001</v>
+        <v>3982.59984</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>745.26972</v>
+        <v>950.7094099999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>955.1533999999999</v>
+        <v>1315.75783</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1743.31234</v>
+        <v>2311.71882</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2106.09608</v>
+        <v>5396.19726</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>982.43394</v>
+        <v>25139.69689</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1104.55527</v>
+        <v>984275.99509</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>15441.86618</v>
+        <v>16539.45782</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4709.08862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>28117.31089</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>27570.996</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6045.931009999999</v>
+        <v>149799.24016</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6515.0596</v>
+        <v>71587.24168000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>11898.25719</v>
+        <v>67141.28545</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>7150.90404</v>
+        <v>28294.00416</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>15234.79463</v>
+        <v>156289.16581</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>16941.33312</v>
+        <v>233171.05998</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>26278.88229</v>
+        <v>381780.8074699999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>26908.81226</v>
+        <v>422014.04608</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>21336.05592</v>
+        <v>353150.40265</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>172257.87586</v>
+        <v>1319269.46325</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>84561.46296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>299733.17448</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>750366.138</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>121.22668</v>
+        <v>121.2363</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>37.2266</v>
+        <v>82.2266</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>109.57052</v>
@@ -2060,13 +2106,13 @@
         <v>254.08171</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>231.61762</v>
+        <v>428.21734</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>255.78773</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>143.54421</v>
+        <v>198.3534</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>421.89376</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>389.35685</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>280.4</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>28.52886</v>
@@ -2093,304 +2144,344 @@
         <v>15.6488</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>9.93069</v>
+        <v>17.13276</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>7.30935</v>
+        <v>51.80291</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>14.1099</v>
+        <v>207.61341</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>10.58098</v>
+        <v>168.54811</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>14.08978</v>
+        <v>14.09105</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>113.63335</v>
+        <v>432.10947</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>210.56029</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1050.632</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3541.83185</v>
+        <v>27878.2266</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3394.78145</v>
+        <v>4829.64195</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6231.9571</v>
+        <v>11142.07578</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6871.36517</v>
+        <v>10398.85074</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8228.28421</v>
+        <v>15404.96499</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>11646.27711</v>
+        <v>38675.402</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>12105.96038</v>
+        <v>32994.74955</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>11934.55097</v>
+        <v>32944.04199</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>14849.4404</v>
+        <v>44352.17855</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>30106.79006</v>
+        <v>8931066.140940001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>34157.92286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>76620.82749000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>100910.868</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>10768.02668</v>
+        <v>156284.29932</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11429.92074</v>
+        <v>79140.68077000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>18823.86449</v>
+        <v>93998.99858</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>14648.93502</v>
+        <v>36279.6868</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>23962.62288</v>
+        <v>219581.09175</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>27393.68809</v>
+        <v>196894.03551</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>36251.71528</v>
+        <v>286813.39112</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>38765.03896</v>
+        <v>470950.74568</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>34400.04429</v>
+        <v>465544.62911</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>202432.53018</v>
+        <v>18750084.84489</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>114840.73612</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>386547.7600599999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>975598.652</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>403.35788</v>
+        <v>540.12958</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>728.25137</v>
+        <v>1183.2178</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>749.41094</v>
+        <v>819.9232900000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>614.47384</v>
+        <v>686.05055</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>665.5810399999999</v>
+        <v>699.3110399999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>389.4299099999999</v>
+        <v>446.45833</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>489.8820099999999</v>
+        <v>544.70271</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>368.65846</v>
+        <v>521.5529700000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>502.1211700000001</v>
+        <v>787.2586699999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2170.05307</v>
+        <v>2597.73523</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1851.54601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2758.60942</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4240.069</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1976.70673</v>
+        <v>2292.87441</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1651.54209</v>
+        <v>1736.24923</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1455.86949</v>
+        <v>1493.2294</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1781.0248</v>
+        <v>3098.22188</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3131.45996</v>
+        <v>4910.133140000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3059.37611</v>
+        <v>10019.45552</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5014.49649</v>
+        <v>5941.818230000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3868.82458</v>
+        <v>4584.06466</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2666.34091</v>
+        <v>19519.32856</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>11448.21905</v>
+        <v>21454.33769</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>17394.43328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>18946.13253</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>8303.296</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>66.67319999999999</v>
+        <v>103.32425</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>183.19131</v>
+        <v>192.57856</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>277.64305</v>
+        <v>300.8892</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>134.78244</v>
+        <v>149.28232</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>550.40423</v>
+        <v>12416.73888</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>291.32309</v>
+        <v>493.62646</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>186.67201</v>
+        <v>1710.77425</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>159.0764</v>
+        <v>1099.60337</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>63.95747</v>
+        <v>1180.345</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1522.9761</v>
+        <v>17726.29958</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1175.63441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3523.70081</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3586.075</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6123.27837</v>
+        <v>141777.43517</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>6297.82227</v>
+        <v>73031.44288</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>10227.55551</v>
+        <v>75819.73994</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8698.39918</v>
+        <v>25840.27799</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>15214.94569</v>
+        <v>196366.82427</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>14753.37518</v>
+        <v>173742.9258</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>24924.19359</v>
+        <v>266952.3202</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>28056.94218</v>
+        <v>444012.90937</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>23055.9728</v>
+        <v>411376.14205</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>174056.09899</v>
+        <v>1086873.71953</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>81383.05833</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>336831.55769</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>841425.155</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>8.267040000000001</v>
+        <v>20.97792</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0.02277</v>
+        <v>0.13186</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>3.94089</v>
+        <v>25.68181</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>17.20155</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0.42006</v>
+        <v>3.10418</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>11.3631</v>
+        <v>17.86911</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>132.02786</v>
+        <v>187.60443</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>54.17377</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>17.1061</v>
+        <v>556.09232</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>203.73478</v>
+        <v>214.0227</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>54.3004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>55.4762</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>83.48999999999999</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>5.231229999999999</v>
@@ -2405,613 +2496,691 @@
         <v>17.92347</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>22.2688</v>
+        <v>22.26881</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>7.608020000000001</v>
+        <v>94.00314</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>7.9503</v>
+        <v>112.00491</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>3.97396</v>
+        <v>87.99142000000001</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>4.29208</v>
+        <v>4.29209</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>15.69847</v>
+        <v>16.20481</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>5.842140000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>796.148</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2184.51223</v>
+        <v>11544.32676</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2552.29048</v>
+        <v>2980.25999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6093.16797</v>
+        <v>15523.2583</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3385.12974</v>
+        <v>6470.72904</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4377.5431</v>
+        <v>5162.711429999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8881.212680000001</v>
+        <v>12079.69715</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5496.49302</v>
+        <v>11364.16639</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6253.38961</v>
+        <v>20590.45012</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8090.25376</v>
+        <v>32121.17042</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>13015.74972</v>
+        <v>17621202.52535</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>12975.92155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>24426.44127</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>117164.419</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>13794.31684</v>
+        <v>100979.81075</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>11561.56489</v>
+        <v>30183.70198</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>15126.76876</v>
+        <v>32183.86412</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>18543.46689</v>
+        <v>38706.73091</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>17134.35941</v>
+        <v>876378.2421</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>20593.57543</v>
+        <v>951510.5038600001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>23009.34837</v>
+        <v>1033239.94889</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>26007.6092</v>
+        <v>1350428.10452</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>30082.31174</v>
+        <v>1545840.18743</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>91685.19812999999</v>
+        <v>1688554.59134</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>108724.69045</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>456151.29311</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>173716.02</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>12978.84377</v>
+        <v>53242.66711</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>11052.2858</v>
+        <v>29308.37431</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>13971.7434</v>
+        <v>30208.06558</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>17587.17786</v>
+        <v>37404.48383</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16233.28027</v>
+        <v>44123.10679</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>19689.42824</v>
+        <v>52034.84781</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>21659.4465</v>
+        <v>79059.38009999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>24719.13862</v>
+        <v>88514.33159</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>28139.17206</v>
+        <v>1437941.01337</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>88254.63090999999</v>
+        <v>1610941.75645</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>103437.71939</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>439516.56451</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>159177.177</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>815.4730699999999</v>
+        <v>47737.14364</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>509.2790900000001</v>
+        <v>875.3276699999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1155.02536</v>
+        <v>1975.79854</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>956.28903</v>
+        <v>1302.24708</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>901.0791399999999</v>
+        <v>832255.13531</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>904.1471899999999</v>
+        <v>899475.65605</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1349.90187</v>
+        <v>954180.5687899999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1288.47058</v>
+        <v>1261913.77293</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1943.13968</v>
+        <v>107899.17406</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3430.56722</v>
+        <v>77612.83489</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5286.971060000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>16634.7286</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>14538.843</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>124843.95722</v>
+        <v>112111.03642</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>191830.61289</v>
+        <v>254771.69248</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>226935.40132</v>
+        <v>283298.09056</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>194265.72416</v>
+        <v>283926.45683</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>166015.79713</v>
+        <v>938196.11086</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>130765.23667</v>
+        <v>138629.58229</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>114148.25264</v>
+        <v>482881.11312</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>66246.06830999999</v>
+        <v>-497952.18456</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>103202.8509</v>
+        <v>-260961.36086</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>279801.1923</v>
+        <v>-9398289.081499999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>160631.98304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-255601.17304</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>456713.447</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12400.09707</v>
+        <v>16524.52433</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>15217.15965</v>
+        <v>23593.98419</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>17029.83171</v>
+        <v>21255.48582</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>23087.78209</v>
+        <v>32870.95924</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>24765.79655</v>
+        <v>38452.37836</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>28962.98195</v>
+        <v>44690.14223999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>39028.25558</v>
+        <v>64194.00897</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>48803.75525</v>
+        <v>75639.47770999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>49677.91998000001</v>
+        <v>94458.22336</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>87014.46931999999</v>
+        <v>204399.86106</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>118795.27947</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>225439.09022</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>343869.09</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>405.91214</v>
+        <v>665.17225</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>254.67443</v>
+        <v>403.95095</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>240.59537</v>
+        <v>245.35607</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>148.79753</v>
+        <v>415.05961</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>492.3334</v>
+        <v>515.99934</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>513.19993</v>
+        <v>2152.01334</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>452.23179</v>
+        <v>625.44345</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>301.82686</v>
+        <v>900.55583</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1092.37498</v>
+        <v>2283.78558</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>784.9625500000001</v>
+        <v>12983.00646</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>741.4331500000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1886.45967</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3349.05</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>11994.18493</v>
+        <v>15859.35208</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>14962.48522</v>
+        <v>23190.03324</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>16789.23634</v>
+        <v>21010.12975</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>22938.98456</v>
+        <v>32455.89963</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24273.46315</v>
+        <v>37936.37902</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>28449.78202</v>
+        <v>42538.1289</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>38576.02379</v>
+        <v>63568.56552</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>48501.92839</v>
+        <v>74738.92187999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>48585.545</v>
+        <v>92174.43777999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>86229.50676999999</v>
+        <v>191416.8546</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>118053.84632</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>223552.63055</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>340520.04</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>15987.95064</v>
+        <v>21519.2016</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>16292.0693</v>
+        <v>21706.85743</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>267394.13035</v>
+        <v>307459.80705</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>31821.61652</v>
+        <v>42123.89961</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>33300.25019</v>
+        <v>42858.2706</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>176310.17266</v>
+        <v>225692.46161</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>44044.46078</v>
+        <v>97849.20243</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>232131.88783</v>
+        <v>408665.0803</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>49596.32573999999</v>
+        <v>92734.29212</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>291847.53873</v>
+        <v>370967.50995</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>97297.75689</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>147820.53676</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>162273.834</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>193.36244</v>
+        <v>313.51899</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1190.40437</v>
+        <v>1392.41956</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>623.55332</v>
+        <v>765.8054199999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>777.64107</v>
+        <v>1130.69291</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>389.12794</v>
+        <v>494.69331</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>571.12361</v>
+        <v>1038.50994</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>802.69461</v>
+        <v>962.28748</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>911.6896800000001</v>
+        <v>1334.17426</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>428.98843</v>
+        <v>967.32343</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1549.10956</v>
+        <v>1775.4027</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2062.37882</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2477.81737</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8571.906000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1617.31809</v>
+        <v>2313.7491</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1859.39825</v>
+        <v>2526.65961</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2811.77975</v>
+        <v>5994.121689999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2668.89659</v>
+        <v>2863.01883</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3003.27876</v>
+        <v>3719.06079</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2546.92713</v>
+        <v>4727.105640000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3494.66537</v>
+        <v>5316.5765</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2048.72005</v>
+        <v>2905.50532</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2339.9001</v>
+        <v>4033.79347</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2965.24647</v>
+        <v>18850.58964</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3807.56222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6707.72104</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9408.852999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>14177.27011</v>
+        <v>18891.93351</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>13242.26668</v>
+        <v>17787.77826</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>263958.79728</v>
+        <v>300699.87994</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>28375.07886</v>
+        <v>38130.18786999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>29907.84349</v>
+        <v>38644.5165</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>173192.12192</v>
+        <v>219926.84603</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>39747.1008</v>
+        <v>91570.33845000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>229171.4781</v>
+        <v>404425.40072</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>46827.43721</v>
+        <v>87733.17522</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>287333.1827000001</v>
+        <v>350341.51761</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>91427.81585</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>138634.99835</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>144293.075</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>121256.10365</v>
+        <v>107116.35915</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>190755.70324</v>
+        <v>256658.81924</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-23428.89732</v>
+        <v>-2906.230670000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>185531.88973</v>
+        <v>274673.51646</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>157481.34349</v>
+        <v>933790.2186200001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-16581.95404</v>
+        <v>-42372.73708</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>109132.04744</v>
+        <v>449225.91966</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-117082.06427</v>
+        <v>-830977.78715</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>103284.44514</v>
+        <v>-259237.42962</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>74968.12289</v>
+        <v>-9564856.730390001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>182129.50562</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-177982.61958</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>638308.703</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>32394.76069</v>
+        <v>39291.70662</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>39604.41063</v>
+        <v>48034.0501</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>49478.78606</v>
+        <v>57958.16976</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>51390.95943</v>
+        <v>61784.62241</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>52385.0479</v>
+        <v>64361.08845</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>50831.65431000001</v>
+        <v>69771.18436</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>52051.56447999999</v>
+        <v>77701.68639999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>53390.75883999999</v>
+        <v>78126.94992</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>56281.32184</v>
+        <v>137291.54502</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>129806.50999</v>
+        <v>225604.22327</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>120334.9671</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>163902.55602</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>224596.311</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>88861.34295999999</v>
+        <v>67824.65253000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>151151.29261</v>
+        <v>208624.76914</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-72907.68338</v>
+        <v>-60864.40043</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>134140.9303</v>
+        <v>212888.89405</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>105096.29559</v>
+        <v>869429.13017</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-67413.60835000001</v>
+        <v>-112143.92144</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>57080.48295999999</v>
+        <v>371524.23326</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-170472.82311</v>
+        <v>-909104.73707</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>47003.1233</v>
+        <v>-396528.97464</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-54838.3871</v>
+        <v>-9790460.95366</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>61794.53852</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-341885.1756</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>413712.392</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>11113</v>
+        <v>11578</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>13194</v>
+        <v>13798</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>14093</v>
+        <v>14763</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>14390</v>
+        <v>15240</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>15410</v>
+        <v>16527</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>16070</v>
+        <v>17512</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>17039</v>
+        <v>18926</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>17490</v>
+        <v>19619</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>18012</v>
+        <v>20546</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>21597</v>
+        <v>23319</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>22215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>24723</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>26620</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>